--- a/Doc/SprintBacklog2.xlsx
+++ b/Doc/SprintBacklog2.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Kokhanov, Yeremenko, Tkachov, Daubur, Danilenko, Kiparenko, Golubchikov</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>As a registred user, I want to cancel my likes</t>
+  </si>
+  <si>
+    <t>write a comment a chosen answer</t>
   </si>
 </sst>
 </file>
@@ -499,12 +502,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFE8C8C"/>
       <color rgb="FFFF3F3F"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFF44AD4"/>
       <color rgb="FFFF66CC"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -802,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,25 +1099,35 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>31</v>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1430,6 +1443,13 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
